--- a/REGULAR/BUDGET/BORJA, NECY MANIMTIM.xlsx
+++ b/REGULAR/BUDGET/BORJA, NECY MANIMTIM.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="423">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1300,6 +1300,9 @@
   </si>
   <si>
     <t>UT(0-1-7)</t>
+  </si>
+  <si>
+    <t>10/23,24/2023</t>
   </si>
 </sst>
 </file>
@@ -3779,9 +3782,9 @@
   <dimension ref="A2:M693"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A565" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A583" activePane="bottomLeft"/>
       <selection activeCell="D23" sqref="D23"/>
-      <selection pane="bottomLeft" activeCell="E575" sqref="E575"/>
+      <selection pane="bottomLeft" activeCell="E601" sqref="E601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3949,7 +3952,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>80.727000000000146</v>
+        <v>84.977000000000146</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3959,7 +3962,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>184</v>
+        <v>190.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -16990,15 +16993,17 @@
       <c r="B592" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C592" s="13"/>
+      <c r="C592" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D592" s="38">
         <v>3</v>
       </c>
       <c r="E592" s="9"/>
       <c r="F592" s="20"/>
-      <c r="G592" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G592" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H592" s="38"/>
       <c r="I592" s="9"/>
@@ -17056,13 +17061,15 @@
         <v>45139</v>
       </c>
       <c r="B595" s="20"/>
-      <c r="C595" s="13"/>
+      <c r="C595" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D595" s="38"/>
       <c r="E595" s="9"/>
       <c r="F595" s="20"/>
-      <c r="G595" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G595" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H595" s="38"/>
       <c r="I595" s="9"/>
@@ -17074,13 +17081,15 @@
         <v>45170</v>
       </c>
       <c r="B596" s="20"/>
-      <c r="C596" s="13"/>
+      <c r="C596" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D596" s="38"/>
       <c r="E596" s="9"/>
       <c r="F596" s="20"/>
-      <c r="G596" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G596" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H596" s="38"/>
       <c r="I596" s="9"/>
@@ -17091,32 +17100,42 @@
       <c r="A597" s="39">
         <v>45200</v>
       </c>
-      <c r="B597" s="20"/>
-      <c r="C597" s="13"/>
-      <c r="D597" s="38"/>
+      <c r="B597" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C597" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D597" s="38">
+        <v>2</v>
+      </c>
       <c r="E597" s="9"/>
       <c r="F597" s="20"/>
-      <c r="G597" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G597" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H597" s="38"/>
       <c r="I597" s="9"/>
       <c r="J597" s="11"/>
-      <c r="K597" s="20"/>
+      <c r="K597" s="20" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="39">
         <v>45231</v>
       </c>
       <c r="B598" s="20"/>
-      <c r="C598" s="13"/>
+      <c r="C598" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D598" s="38"/>
       <c r="E598" s="9"/>
       <c r="F598" s="20"/>
-      <c r="G598" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G598" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H598" s="38"/>
       <c r="I598" s="9"/>
